--- a/biology/Botanique/Écozone_indomalaise___plantes_à_graines_par_nom_scientifique/Écozone_indomalaise___plantes_à_graines_par_nom_scientifique.xlsx
+++ b/biology/Botanique/Écozone_indomalaise___plantes_à_graines_par_nom_scientifique/Écozone_indomalaise___plantes_à_graines_par_nom_scientifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_indomalaise_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_indomalaise_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_indomalaise_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_indomalaise_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Abrus - Fabacées
 Abrus precatorius -- Black-eyed Susan, rosary pea
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_indomalaise_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_indomalaise_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Benincasa - Cucurbitacées
 benincasa hispida - Courge cireuse, Bénincasa</t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cozone_indomalaise_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_indomalaise_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cananga - fam. Annonacées
 Cananga odorata - Ylang-ylang
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89cozone_indomalaise_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_indomalaise_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Durio - Bombacacées
 Durio zibethinus - Durion</t>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89cozone_indomalaise_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_indomalaise_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fortunella - Rutacées
 Fortunella margarita - Kumquat</t>
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89cozone_indomalaise_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_indomalaise_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Hanguana - fam. Hanguanaceae</t>
         </is>
@@ -687,7 +711,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>%C3%89cozone_indomalaise_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_indomalaise_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -705,7 +729,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Lodoicea - Arécacées
 Lodoicea maldivica - Cocotier de mer</t>
@@ -718,7 +744,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>%C3%89cozone_indomalaise_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_indomalaise_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -736,7 +762,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Meconopsis - Papavéracées
 Meconopsis betonicifolia - coquelicot bleu de l'Himalaya
@@ -750,7 +778,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>%C3%89cozone_indomalaise_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_indomalaise_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -768,7 +796,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphiopedilum - Orchidacées
 Paphiopedilum argus
